--- a/tests/test_data/test_structures/modex_example.xlsx
+++ b/tests/test_data/test_structures/modex_example.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Process_Set" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Parameter_Input-Output" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Helper_Set" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">electricity, heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional</t>
   </si>
 </sst>
 </file>
@@ -101,6 +105,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,8 +165,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,65 +193,65 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -268,228 +277,292 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>13</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
